--- a/csv_files/2d_20classes_noise_10runs/target_vs_output.xlsx
+++ b/csv_files/2d_20classes_noise_10runs/target_vs_output.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\particles_nir_repo_new\csv_files\2d_20classes_noise_10runs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\studentdell1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAADF6D-2AD7-4163-8107-A05E53544A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CAD269B-4F19-483C-A251-856C34823DA3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Target</t>
   </si>
@@ -52,11 +51,14 @@
   <si>
     <t>Output</t>
   </si>
+  <si>
+    <t>Std/sqrt(10)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,7 +116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -137,6 +139,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -144,7 +155,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -156,6 +167,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -219,6 +233,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -276,22 +291,139 @@
             <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
             <c:plus>
-              <c:numLit>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numLit>
+              <c:numRef>
+                <c:f>גיליון1!$O$3:$O$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="19"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.3058870048579831</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>40.787321014692246</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>156.58047629112497</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>275.52777637754701</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>361.34046887173378</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>385.26043283876311</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>408.25904222142532</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>387.84106710524264</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>342.69540897615377</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>279.20746766517544</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>201.10484827571844</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>120.24645524920919</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>70.638901778300792</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>40.323965854343022</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>18.614480623667401</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>7.9364839682177761</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.0602049520483257</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.26874192494328497</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
             </c:plus>
             <c:minus>
-              <c:numLit>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numLit>
+              <c:numRef>
+                <c:f>גיליון1!$O$3:$O$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.3058870048579831</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>40.787321014692246</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>156.58047629112497</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>275.52777637754701</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>361.34046887173378</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>385.26043283876311</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>408.25904222142532</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>387.84106710524264</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>342.69540897615377</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>279.20746766517544</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>201.10484827571844</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>120.24645524920919</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>70.638901778300792</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>40.323965854343022</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>18.614480623667401</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>7.9364839682177761</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2.0602049520483257</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.26874192494328497</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
             </c:minus>
             <c:spPr>
               <a:noFill/>
@@ -400,9 +532,146 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="fixedVal"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
-            <c:val val="0.1"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>גיליון1!$O$27:$O$46</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>18.066317912529652</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>13.598424043004471</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>56.041042982187463</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>184.63458558002159</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>328.62358885011241</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>352.8339079735764</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>388.66342630291814</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>404.60428447623013</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>392.98612621867488</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>346.01560287577723</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>289.93146939028685</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>194.84907270876323</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>133.03730464997852</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>74.016117442218302</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>56.754733381019754</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>27.520125712832371</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>36.22327104899329</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>33.448837551993755</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>24.443747045960773</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>23.399629174653814</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>גיליון1!$O$27:$O$46</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>18.066317912529652</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>13.598424043004471</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>56.041042982187463</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>184.63458558002159</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>328.62358885011241</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>352.8339079735764</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>388.66342630291814</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>404.60428447623013</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>392.98612621867488</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>346.01560287577723</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>289.93146939028685</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>194.84907270876323</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>133.03730464997852</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>74.016117442218302</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>56.754733381019754</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>27.520125712832371</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>36.22327104899329</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>33.448837551993755</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>24.443747045960773</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>23.399629174653814</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -552,6 +821,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -672,6 +942,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -791,6 +1062,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -822,6 +1094,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -829,7 +1102,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1424,16 +1696,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>430529</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>125730</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1757,16 +2029,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAFD3C2-4F2E-441A-9FC7-F195D6ED82F1}">
-  <dimension ref="A1:N46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="J5" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1785,8 +2061,9 @@
       </c>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>0</v>
@@ -1827,8 +2104,11 @@
       <c r="N2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1874,8 +2154,12 @@
         <f>STDEV(B3:K3)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f>N3/SQRT(10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1921,8 +2205,12 @@
         <f t="shared" ref="N4:N22" si="2">STDEV(B4:K4)</f>
         <v>10.454132622503355</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f t="shared" ref="O4:O22" si="3">N4/SQRT(10)</f>
+        <v>3.3058870048579831</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1968,8 +2256,12 @@
         <f t="shared" si="2"/>
         <v>128.98083406287756</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f t="shared" si="3"/>
+        <v>40.787321014692246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -2015,8 +2307,12 @@
         <f t="shared" si="2"/>
         <v>495.15094219394911</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>156.58047629112497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -2062,8 +2358,12 @@
         <f t="shared" si="2"/>
         <v>871.29533199458581</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>275.52777637754701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -2109,8 +2409,12 @@
         <f t="shared" si="2"/>
         <v>1142.6588924278515</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>361.34046887173378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -2156,8 +2460,12 @@
         <f t="shared" si="2"/>
         <v>1218.3004601128209</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>385.26043283876311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -2203,8 +2511,12 @@
         <f t="shared" si="2"/>
         <v>1291.0284487785525</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>408.25904222142532</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -2250,8 +2562,12 @@
         <f t="shared" si="2"/>
         <v>1226.4611422027742</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>387.84106710524264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2297,8 +2613,12 @@
         <f t="shared" si="2"/>
         <v>1083.6980360475575</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>342.69540897615377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -2344,8 +2664,12 @@
         <f t="shared" si="2"/>
         <v>882.93153754976947</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>279.20746766517544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -2391,8 +2715,12 @@
         <f t="shared" si="2"/>
         <v>635.94936905385589</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>201.10484827571844</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -2438,8 +2766,12 @@
         <f t="shared" si="2"/>
         <v>380.25267914901099</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>120.24645524920919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2485,8 +2817,12 @@
         <f t="shared" si="2"/>
         <v>223.37982103234901</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>70.638901778300792</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -2532,8 +2868,12 @@
         <f t="shared" si="2"/>
         <v>127.51557639058149</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>40.323965854343022</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -2579,8 +2919,12 @@
         <f t="shared" si="2"/>
         <v>58.864156231860584</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>18.614480623667401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -2626,8 +2970,12 @@
         <f t="shared" si="2"/>
         <v>25.097365952979565</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <f t="shared" si="3"/>
+        <v>7.9364839682177761</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2673,8 +3021,12 @@
         <f t="shared" si="2"/>
         <v>6.5149400952306875</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <f t="shared" si="3"/>
+        <v>2.0602049520483257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2720,8 +3072,12 @@
         <f t="shared" si="2"/>
         <v>0.84983658559879749</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <f t="shared" si="3"/>
+        <v>0.26874192494328497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2767,8 +3123,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
@@ -2782,13 +3142,14 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="5" t="s">
         <v>4</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>0</v>
       </c>
@@ -2828,8 +3189,11 @@
       <c r="N26" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
@@ -2875,8 +3239,12 @@
         <f>STDEV(B27:K27)</f>
         <v>57.130713536292355</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <f>N27/SQRT(10)</f>
+        <v>18.066317912529652</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2911,19 +3279,23 @@
         <v>127.864186</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" ref="L28:L46" si="3">SUM(B28:K28)</f>
+        <f t="shared" ref="L28:L46" si="4">SUM(B28:K28)</f>
         <v>1240.1004718300001</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" ref="M28:M46" si="4">AVERAGE(B28:K28)</f>
+        <f t="shared" ref="M28:M46" si="5">AVERAGE(B28:K28)</f>
         <v>124.01004718300001</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" ref="N28:N46" si="5">STDEV(B28:K28)</f>
+        <f t="shared" ref="N28:N46" si="6">STDEV(B28:K28)</f>
         <v>43.001992564689616</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <f t="shared" ref="O28:O46" si="7">N28/SQRT(10)</f>
+        <v>13.598424043004471</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2958,19 +3330,23 @@
         <v>3856.3174009999998</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38517.822226999997</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3851.7822226999997</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>177.21733827510735</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <f t="shared" si="7"/>
+        <v>56.041042982187463</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -3005,19 +3381,23 @@
         <v>13782.32977</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>135426.46412000002</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13542.646412000002</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>583.86582527414907</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <f t="shared" si="7"/>
+        <v>184.63458558002159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -3052,19 +3432,23 @@
         <v>24251.621719999999</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>239601.80209999997</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23960.180209999999</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1039.199033625069</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <f t="shared" si="7"/>
+        <v>328.62358885011241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -3099,19 +3483,23 @@
         <v>30748.652300000002</v>
       </c>
       <c r="L32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>301267.38445000001</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30126.738445000003</v>
       </c>
       <c r="N32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1115.7587849347465</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32">
+        <f t="shared" si="7"/>
+        <v>352.8339079735764</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -3146,19 +3534,23 @@
         <v>31889.163840000001</v>
       </c>
       <c r="L33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>308505.64171</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30850.564170999998</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1229.0616703222174</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <f t="shared" si="7"/>
+        <v>388.66342630291814</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7</v>
       </c>
@@ -3193,19 +3585,23 @@
         <v>28120.952310000001</v>
       </c>
       <c r="L34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>269205.22904000006</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26920.522904000005</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1279.4710900075945</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <f t="shared" si="7"/>
+        <v>404.60428447623013</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>8</v>
       </c>
@@ -3240,19 +3636,23 @@
         <v>22492.433120000002</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>211725.40067999999</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21172.540067999998</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1242.7312476974266</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <f t="shared" si="7"/>
+        <v>392.98612621867488</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>9</v>
       </c>
@@ -3287,19 +3687,23 @@
         <v>15952.718220000001</v>
       </c>
       <c r="L36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>147407.35229000004</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14740.735229000004</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1094.1974110437641</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36">
+        <f t="shared" si="7"/>
+        <v>346.01560287577723</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>10</v>
       </c>
@@ -3334,19 +3738,23 @@
         <v>10384.70304</v>
       </c>
       <c r="L37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94694.337838000007</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9469.433783800001</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>916.84380863269644</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37">
+        <f t="shared" si="7"/>
+        <v>289.93146939028685</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>11</v>
       </c>
@@ -3381,19 +3789,23 @@
         <v>5663.3748439999999</v>
       </c>
       <c r="L38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53633.429261999998</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5363.3429262</v>
       </c>
       <c r="N38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>616.16686973144624</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38">
+        <f t="shared" si="7"/>
+        <v>194.84907270876323</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>12</v>
       </c>
@@ -3428,19 +3840,23 @@
         <v>3422.5449509999999</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28566.960780000001</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2856.6960779999999</v>
       </c>
       <c r="N39" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>420.70089646364193</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39">
+        <f t="shared" si="7"/>
+        <v>133.03730464997852</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>13</v>
       </c>
@@ -3475,19 +3891,23 @@
         <v>1636.7857610000001</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14808.652853</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1480.8652852999999</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>234.05951467992608</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40">
+        <f t="shared" si="7"/>
+        <v>74.016117442218302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>14</v>
       </c>
@@ -3522,19 +3942,23 @@
         <v>434.15069799999998</v>
       </c>
       <c r="L41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5775.7948514</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>577.57948513999997</v>
       </c>
       <c r="N41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>179.47422547961136</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41">
+        <f t="shared" si="7"/>
+        <v>56.754733381019754</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>15</v>
       </c>
@@ -3569,19 +3993,23 @@
         <v>282.56180269999999</v>
       </c>
       <c r="L42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2476.7559275499998</v>
       </c>
       <c r="M42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>247.67559275499997</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>87.026278746715207</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42">
+        <f t="shared" si="7"/>
+        <v>27.520125712832371</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>16</v>
       </c>
@@ -3616,19 +4044,23 @@
         <v>82.915205499999999</v>
       </c>
       <c r="L43" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1159.3027557299999</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>115.93027557299999</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>114.54804081645551</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43">
+        <f t="shared" si="7"/>
+        <v>36.22327104899329</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>17</v>
       </c>
@@ -3663,19 +4095,23 @@
         <v>-193.3586961</v>
       </c>
       <c r="L44" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>263.75046690500005</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26.375046690500007</v>
       </c>
       <c r="N44" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>105.77451174927103</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44">
+        <f t="shared" si="7"/>
+        <v>33.448837551993755</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>18</v>
       </c>
@@ -3710,19 +4146,23 @@
         <v>47.781659050000002</v>
       </c>
       <c r="L45" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57.592919269999982</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.7592919269999978</v>
       </c>
       <c r="N45" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>77.297915214248576</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <f t="shared" si="7"/>
+        <v>24.443747045960773</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>19</v>
       </c>
@@ -3757,24 +4197,28 @@
         <v>58.628164300000002</v>
       </c>
       <c r="L46" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>206.85785822000003</v>
       </c>
       <c r="M46" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.685785822000003</v>
       </c>
       <c r="N46" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>73.996124595232018</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="7"/>
+        <v>23.399629174653814</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="L1:N1"/>
     <mergeCell ref="A25:K25"/>
-    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L25:O25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
